--- a/Collections/Germany/#Germany#Weimar Republic#Mark#Regular#[1919-1925]#circulation_quality.xlsx
+++ b/Collections/Germany/#Germany#Weimar Republic#Mark#Regular#[1919-1925]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCF841C-6A32-4983-85FD-55E57CC6F859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01128C9-C631-4DC1-886C-C2B8EC9DCFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2481,7 +2481,7 @@
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4421,7 +4421,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8 M6">
+  <conditionalFormatting sqref="M6 M8">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4450,7 +4450,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8 K6">
+  <conditionalFormatting sqref="K6 K8">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
